--- a/results/I3_N5_M2_T30_C200_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.30654570757797</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1889998912811279</v>
+        <v>0.04999995231628418</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.58654570757797</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.32864898449874</v>
+        <v>22.46902814888766</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.15868643584618</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.6507518371985</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>24.7746381677983</v>
       </c>
     </row>
     <row r="7">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>191.2280000000266</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>87.37200000000509</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>187.7740000000573</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.2730000000047</v>
+        <v>182.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>131.526000000023</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>187.7740000000721</v>
+        <v>182.6</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>191.2280000000359</v>
+        <v>124.8</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
